--- a/data/trans_orig/P1412-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>3923</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9572</v>
+        <v>9707</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005576706127887702</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001327481927648634</v>
+        <v>0.001323023255521669</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01360634964468013</v>
+        <v>0.01379870946808698</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>5483</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2074</v>
+        <v>2099</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12595</v>
+        <v>11936</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007866588890701357</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002974988468272306</v>
+        <v>0.003010817155287782</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01806847960447374</v>
+        <v>0.01712354355427527</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -785,19 +785,19 @@
         <v>9406</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4323</v>
+        <v>4416</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17157</v>
+        <v>18255</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006716399915098734</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003086604684436401</v>
+        <v>0.003152787804530413</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01225041809901914</v>
+        <v>0.01303414148840835</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>699546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>693897</v>
+        <v>693762</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>702535</v>
+        <v>702538</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9944232938721123</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9863936503553201</v>
+        <v>0.986201290531914</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9986725180723514</v>
+        <v>0.9986769767444783</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>645</v>
@@ -835,19 +835,19 @@
         <v>691567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>684455</v>
+        <v>685114</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>694976</v>
+        <v>694951</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9921334111092986</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9819315203955257</v>
+        <v>0.9828764564457245</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9970250115317277</v>
+        <v>0.9969891828447122</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1315</v>
@@ -856,19 +856,19 @@
         <v>1391113</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1383362</v>
+        <v>1382264</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1396196</v>
+        <v>1396103</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9932836000849012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9877495819009809</v>
+        <v>0.9869658585115917</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9969133953155636</v>
+        <v>0.9968472121954696</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>9832</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4331</v>
+        <v>4516</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19727</v>
+        <v>20836</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00965874780988096</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004254424436330525</v>
+        <v>0.004436613907213897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01937963431361767</v>
+        <v>0.02046840061087178</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -981,19 +981,19 @@
         <v>6585</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2284</v>
+        <v>3113</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14313</v>
+        <v>13852</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00640656943157898</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002222704953195744</v>
+        <v>0.003028740439385301</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01392633615275843</v>
+        <v>0.01347733799809697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -1002,19 +1002,19 @@
         <v>16417</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8935</v>
+        <v>9309</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26962</v>
+        <v>27465</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008024834389733207</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004367704395856352</v>
+        <v>0.004550236448657388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01317958690014065</v>
+        <v>0.01342567457860773</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1008115</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>998220</v>
+        <v>997111</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1013616</v>
+        <v>1013431</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.990341252190119</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9806203656863823</v>
+        <v>0.9795315993891283</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9957455755636695</v>
+        <v>0.9955633860927862</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>931</v>
@@ -1052,19 +1052,19 @@
         <v>1021206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1013478</v>
+        <v>1013939</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1025507</v>
+        <v>1024678</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.993593430568421</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9860736638472415</v>
+        <v>0.9865226620019034</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9977772950468042</v>
+        <v>0.9969712595606147</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1859</v>
@@ -1073,19 +1073,19 @@
         <v>2029321</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2018776</v>
+        <v>2018273</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2036803</v>
+        <v>2036429</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9919751656102668</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.986820413099859</v>
+        <v>0.9865743254213923</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9956322956041436</v>
+        <v>0.9954497635513436</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>4106</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10269</v>
+        <v>10588</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005419614720476448</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001353990728697958</v>
+        <v>0.001345569324527658</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01355437745890022</v>
+        <v>0.01397543989251239</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1198,19 +1198,19 @@
         <v>8484</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4080</v>
+        <v>4055</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16728</v>
+        <v>16744</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01091648138575271</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005249299332532361</v>
+        <v>0.005217265101663164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02152473604506852</v>
+        <v>0.02154493979232963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1219,19 +1219,19 @@
         <v>12590</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6482</v>
+        <v>7053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20656</v>
+        <v>21289</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00820305839143624</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004223576046270258</v>
+        <v>0.004595698436805735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01345853590024526</v>
+        <v>0.0138712077004238</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>753517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>747354</v>
+        <v>747035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>756597</v>
+        <v>756604</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9945803852795235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9864456225410998</v>
+        <v>0.9860245601074883</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986460092713021</v>
+        <v>0.9986544306754723</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>697</v>
@@ -1269,19 +1269,19 @@
         <v>768690</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>760446</v>
+        <v>760430</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>773094</v>
+        <v>773119</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9890835186142473</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9784752639549313</v>
+        <v>0.9784550602076701</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9947507006674676</v>
+        <v>0.9947827348983368</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1382</v>
@@ -1290,19 +1290,19 @@
         <v>1522207</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1514141</v>
+        <v>1513508</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1528315</v>
+        <v>1527744</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9917969416085638</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9865414640997547</v>
+        <v>0.9861287922995762</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9957764239537298</v>
+        <v>0.9954043015631943</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>5107</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10321</v>
+        <v>11373</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0053884481417292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002094665827672661</v>
+        <v>0.002097955502577548</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01089004315160717</v>
+        <v>0.01199980703916066</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1415,19 +1415,19 @@
         <v>4226</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1065</v>
+        <v>1080</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10428</v>
+        <v>10624</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004021537921955711</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001013723637684958</v>
+        <v>0.001027398040614969</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009922829720266592</v>
+        <v>0.0101087137314496</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1436,19 +1436,19 @@
         <v>9333</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4255</v>
+        <v>4217</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17890</v>
+        <v>18577</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004669698781302029</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00212894675593942</v>
+        <v>0.002110078115944471</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0089510311586722</v>
+        <v>0.009294763436206331</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>942632</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>937418</v>
+        <v>936366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>945754</v>
+        <v>945751</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9946115518582708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9891099568483929</v>
+        <v>0.9880001929608393</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9979053341723273</v>
+        <v>0.9979020444974225</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>998</v>
@@ -1486,19 +1486,19 @@
         <v>1046728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1040526</v>
+        <v>1040330</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1049889</v>
+        <v>1049874</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9959784620780443</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9900771702797335</v>
+        <v>0.9898912862685504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9989862763623151</v>
+        <v>0.9989726019593851</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1903</v>
@@ -1507,19 +1507,19 @@
         <v>1989360</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1980803</v>
+        <v>1980116</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1994438</v>
+        <v>1994476</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9953303012186979</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9910489688413278</v>
+        <v>0.9907052365637934</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9978710532440604</v>
+        <v>0.9978899218840555</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>22968</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14291</v>
+        <v>14713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34256</v>
+        <v>35072</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006702505971672376</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004170432431788456</v>
+        <v>0.004293645873095654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00999646013862643</v>
+        <v>0.01023464188048124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1632,19 +1632,19 @@
         <v>24778</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16484</v>
+        <v>16217</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36368</v>
+        <v>36427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006974020335402709</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004639602994534573</v>
+        <v>0.004564279721192182</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01023603320841323</v>
+        <v>0.0102525380343186</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -1653,19 +1653,19 @@
         <v>47746</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35777</v>
+        <v>34910</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65283</v>
+        <v>64137</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006840717559422993</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005125836831640547</v>
+        <v>0.005001638946723603</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009353159953865386</v>
+        <v>0.009189034475953262</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3403811</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3392523</v>
+        <v>3391707</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3412488</v>
+        <v>3412066</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9932974940283277</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9900035398613736</v>
+        <v>0.9897653581195188</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9958295675682117</v>
+        <v>0.9957063541269043</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3271</v>
@@ -1703,19 +1703,19 @@
         <v>3528190</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3516600</v>
+        <v>3516541</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3536484</v>
+        <v>3536751</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9930259796645973</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9897639667915867</v>
+        <v>0.9897474619656809</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9953603970054653</v>
+        <v>0.9954357202788078</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6459</v>
@@ -1724,19 +1724,19 @@
         <v>6932001</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6914464</v>
+        <v>6915610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6943970</v>
+        <v>6944837</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9931592824405771</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9906468400461346</v>
+        <v>0.9908109655240467</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9948741631683594</v>
+        <v>0.9949983610532763</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>3783</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1071</v>
+        <v>1045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8965</v>
+        <v>8902</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005606128563613261</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001586524917977538</v>
+        <v>0.001548324624598213</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01328525507030131</v>
+        <v>0.01319222625296544</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2089,19 +2089,19 @@
         <v>3438</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9549</v>
+        <v>9575</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005109222571314643</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001524322663107173</v>
+        <v>0.001531513344405822</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01419251767111323</v>
+        <v>0.01423139897431293</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2110,19 +2110,19 @@
         <v>7221</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3199</v>
+        <v>3193</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14450</v>
+        <v>13772</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005358037101086994</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002373590196541497</v>
+        <v>0.002368985689708187</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01072212917999176</v>
+        <v>0.01021899336307954</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>671017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>665835</v>
+        <v>665898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673729</v>
+        <v>673755</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9943938714363867</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9867147449296985</v>
+        <v>0.9868077737470345</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9984134750820225</v>
+        <v>0.9984516753754018</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>663</v>
@@ -2160,19 +2160,19 @@
         <v>669401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>663290</v>
+        <v>663264</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>671813</v>
+        <v>671809</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9948907774286854</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.985807482328886</v>
+        <v>0.9857686010256862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9984756773368929</v>
+        <v>0.9984684866555942</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1311</v>
@@ -2181,19 +2181,19 @@
         <v>1340418</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1333189</v>
+        <v>1333867</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1344440</v>
+        <v>1344446</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.994641962898913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9892778708200082</v>
+        <v>0.9897810066369205</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9976264098034585</v>
+        <v>0.9976310143102918</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>9997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4989</v>
+        <v>5374</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18249</v>
+        <v>18331</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009777857193400647</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004879913051817101</v>
+        <v>0.005256066960053779</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01784881500012206</v>
+        <v>0.01792863040976261</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2306,19 +2306,19 @@
         <v>3551</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9922</v>
+        <v>9864</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003405284005544574</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0009760273057665211</v>
+        <v>0.0009715744285414087</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009513870395642677</v>
+        <v>0.009457826052734979</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -2327,19 +2327,19 @@
         <v>13549</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7569</v>
+        <v>8079</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23155</v>
+        <v>23803</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006559972204898907</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003664668654920751</v>
+        <v>0.003911865980656938</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01121099250116941</v>
+        <v>0.01152509797899091</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>1012434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1004182</v>
+        <v>1004100</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1017442</v>
+        <v>1017057</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9902221428065994</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.982151184999878</v>
+        <v>0.9820713695902376</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.995120086948183</v>
+        <v>0.9947439330399463</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>974</v>
@@ -2377,19 +2377,19 @@
         <v>1039362</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1032991</v>
+        <v>1033049</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1041895</v>
+        <v>1041900</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9965947159944554</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9904861296043573</v>
+        <v>0.9905421739472652</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9990239726942335</v>
+        <v>0.9990284255714587</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1915</v>
@@ -2398,19 +2398,19 @@
         <v>2051795</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2042189</v>
+        <v>2041541</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2057775</v>
+        <v>2057265</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9934400277951011</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9887890074988303</v>
+        <v>0.9884749020210095</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9963353313450792</v>
+        <v>0.996088134019343</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>7905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3869</v>
+        <v>2970</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16394</v>
+        <v>15730</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01040718905190672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005094028746711114</v>
+        <v>0.003910350150132809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02158343394442297</v>
+        <v>0.02070924245686233</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2523,19 +2523,19 @@
         <v>4733</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12109</v>
+        <v>12165</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006028796064620264</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001616902823032382</v>
+        <v>0.00160960576972501</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01542467839568563</v>
+        <v>0.01549638575113828</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -2544,19 +2544,19 @@
         <v>12637</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6341</v>
+        <v>7375</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21537</v>
+        <v>23170</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008181908602924207</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004105477408146045</v>
+        <v>0.004774586531562185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01394395727346219</v>
+        <v>0.01500095838661973</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>751647</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>743158</v>
+        <v>743822</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>755683</v>
+        <v>756582</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9895928109480933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9784165660555771</v>
+        <v>0.9792907575431378</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9949059712532889</v>
+        <v>0.9960896498498673</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>732</v>
@@ -2594,19 +2594,19 @@
         <v>780278</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>772902</v>
+        <v>772846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>783742</v>
+        <v>783747</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9939712039353797</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9845753216043144</v>
+        <v>0.9845036142488617</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9983830971769676</v>
+        <v>0.998390394230275</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1421</v>
@@ -2615,19 +2615,19 @@
         <v>1531926</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1523026</v>
+        <v>1521393</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1538222</v>
+        <v>1537188</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9918180913970758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9860560427265376</v>
+        <v>0.9849990416133804</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.995894522591854</v>
+        <v>0.9952254134684378</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>4469</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1524</v>
+        <v>1698</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9984</v>
+        <v>11134</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004767024534022208</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001625256209431387</v>
+        <v>0.00181109390058963</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01064930585936386</v>
+        <v>0.01187569144113526</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -2740,19 +2740,19 @@
         <v>7461</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3231</v>
+        <v>3128</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15180</v>
+        <v>14873</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007148499551245775</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003095081148513225</v>
+        <v>0.002997256970624672</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01454366610274055</v>
+        <v>0.01424948849182214</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -2761,19 +2761,19 @@
         <v>11931</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6888</v>
+        <v>6779</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20794</v>
+        <v>21013</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00602159270504292</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003476431426093972</v>
+        <v>0.003421387527744402</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01049487324457573</v>
+        <v>0.01060540814831331</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>933098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>927583</v>
+        <v>926433</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>936043</v>
+        <v>935869</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9952329754659778</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9893506941406364</v>
+        <v>0.988124308558865</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983747437905687</v>
+        <v>0.9981889060994105</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>952</v>
@@ -2811,19 +2811,19 @@
         <v>1036318</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1028599</v>
+        <v>1028906</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1040548</v>
+        <v>1040651</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9928515004487543</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9854563338972596</v>
+        <v>0.9857505115081778</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9969049188514869</v>
+        <v>0.9970027430293753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1879</v>
@@ -2832,19 +2832,19 @@
         <v>1969415</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1960552</v>
+        <v>1960333</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1974458</v>
+        <v>1974567</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9939784072949571</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9895051267554242</v>
+        <v>0.9893945918516868</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.996523568573906</v>
+        <v>0.9965786124722555</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>26154</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17068</v>
+        <v>16796</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38917</v>
+        <v>38114</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007705277013035545</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00502843061707087</v>
+        <v>0.004948112413642336</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01146527210404807</v>
+        <v>0.01122857982533052</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -2957,19 +2957,19 @@
         <v>19183</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11614</v>
+        <v>10408</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30255</v>
+        <v>30052</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005412045929166565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003276703467563192</v>
+        <v>0.002936232799719968</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.00853567851896409</v>
+        <v>0.008478363341387284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -2978,19 +2978,19 @@
         <v>45338</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32622</v>
+        <v>31596</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60587</v>
+        <v>59960</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0065338430882265</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004701321920392155</v>
+        <v>0.004553402413509961</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008731547006761977</v>
+        <v>0.008641182615515011</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3368196</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3355433</v>
+        <v>3356236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3377282</v>
+        <v>3377554</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9922947229869644</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9885347278959521</v>
+        <v>0.98877142017467</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9949715693829292</v>
+        <v>0.9950518875863578</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3321</v>
@@ -3028,19 +3028,19 @@
         <v>3525359</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3514287</v>
+        <v>3514490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3532928</v>
+        <v>3534134</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9945879540708334</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9914643214810359</v>
+        <v>0.9915216366586129</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9967232965324369</v>
+        <v>0.9970637672002801</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6526</v>
@@ -3049,19 +3049,19 @@
         <v>6893554</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6878305</v>
+        <v>6878932</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6906270</v>
+        <v>6907296</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9934661569117735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.991268452993238</v>
+        <v>0.9913588173844849</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9952986780796078</v>
+        <v>0.99544659758649</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>4166</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8377</v>
+        <v>8474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006032133790957976</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002570718822804799</v>
+        <v>0.002569735814666352</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01212876292067513</v>
+        <v>0.0122690567136881</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -3414,19 +3414,19 @@
         <v>5295</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2807</v>
+        <v>2665</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9291</v>
+        <v>9289</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.007233933843113217</v>
+        <v>0.007233933843113215</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003834659175181871</v>
+        <v>0.003640655226871545</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0126930418909643</v>
+        <v>0.01268965268583274</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -3435,19 +3435,19 @@
         <v>9462</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5752</v>
+        <v>5756</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14555</v>
+        <v>15533</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.006650478029424937</v>
+        <v>0.006650478029424936</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004042942530108078</v>
+        <v>0.004045817381764397</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01023033734767974</v>
+        <v>0.01091765427166232</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>686544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>682333</v>
+        <v>682236</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>688934</v>
+        <v>688935</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9939678662090421</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.987871237079325</v>
+        <v>0.9877309432863124</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9974292811771953</v>
+        <v>0.9974302641853336</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1225</v>
@@ -3485,19 +3485,19 @@
         <v>726716</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>722720</v>
+        <v>722722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>729204</v>
+        <v>729346</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9927660661568869</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9873069581090356</v>
+        <v>0.9873103473141672</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9961653408248181</v>
+        <v>0.9963593447731284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1948</v>
@@ -3506,19 +3506,19 @@
         <v>1413259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1408166</v>
+        <v>1407188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1416969</v>
+        <v>1416965</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.993349521970575</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9897696626523204</v>
+        <v>0.9890823457283378</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9959570574698922</v>
+        <v>0.995954182618236</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>6388</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3212</v>
+        <v>3156</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11862</v>
+        <v>11548</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.006097928272285729</v>
+        <v>0.006097928272285728</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00306644460521311</v>
+        <v>0.003012736477966415</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01132405978773543</v>
+        <v>0.01102371199665154</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -3631,19 +3631,19 @@
         <v>4100</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1374</v>
+        <v>1409</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8150</v>
+        <v>8789</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003831550279324335</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001283676592943926</v>
+        <v>0.001316757839492792</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007615253793282512</v>
+        <v>0.008212639660442063</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -3652,19 +3652,19 @@
         <v>10488</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6181</v>
+        <v>6140</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16807</v>
+        <v>17003</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.004952609424535491</v>
+        <v>0.00495260942453549</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002918762995761168</v>
+        <v>0.00289918839057154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007936374443124989</v>
+        <v>0.008029001310060719</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>1041131</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1035657</v>
+        <v>1035971</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1044307</v>
+        <v>1044363</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9939020717277144</v>
+        <v>0.9939020717277143</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9886759402122647</v>
+        <v>0.9889762880033485</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9969335553947869</v>
+        <v>0.9969872635220336</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1509</v>
@@ -3702,19 +3702,19 @@
         <v>1066087</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1062037</v>
+        <v>1061398</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1068813</v>
+        <v>1068778</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9961684497206756</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9923847462067176</v>
+        <v>0.9917873603395578</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9987163234070562</v>
+        <v>0.998683242160507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2462</v>
@@ -3723,19 +3723,19 @@
         <v>2107218</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2100899</v>
+        <v>2100703</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2111525</v>
+        <v>2111566</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9950473905754644</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9920636255568751</v>
+        <v>0.9919709986899392</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9970812370042389</v>
+        <v>0.9971008116094286</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>9593</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4699</v>
+        <v>4279</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18105</v>
+        <v>17596</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01199320295650419</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00587435684811085</v>
+        <v>0.00534998092292216</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02263539468324182</v>
+        <v>0.02199838148225626</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3848,19 +3848,19 @@
         <v>3243</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>685</v>
+        <v>1217</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6985</v>
+        <v>7009</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004003101521681466</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0008458516198978435</v>
+        <v>0.001502711393989636</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008622347690407269</v>
+        <v>0.008651947717466081</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -3869,19 +3869,19 @@
         <v>12836</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7457</v>
+        <v>6905</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21847</v>
+        <v>22171</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007972635204241074</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004631662383696484</v>
+        <v>0.004288900932751376</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01356932030146076</v>
+        <v>0.01377054872662584</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>790269</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>781757</v>
+        <v>782266</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>795163</v>
+        <v>795583</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9880067970434959</v>
+        <v>0.9880067970434957</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.977364605316758</v>
+        <v>0.9780016185177436</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.994125643151889</v>
+        <v>0.9946500190770777</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1039</v>
@@ -3919,19 +3919,19 @@
         <v>806902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>803160</v>
+        <v>803136</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>809460</v>
+        <v>808928</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9959968984783183</v>
+        <v>0.9959968984783185</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9913776523095924</v>
+        <v>0.991348052282534</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9991541483801022</v>
+        <v>0.9984972886060104</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1703</v>
@@ -3940,19 +3940,19 @@
         <v>1597171</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1588160</v>
+        <v>1587836</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1602550</v>
+        <v>1603102</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9920273647957588</v>
+        <v>0.992027364795759</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9864306796985393</v>
+        <v>0.9862294512733741</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9953683376163035</v>
+        <v>0.9957110990672485</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>12524</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7684</v>
+        <v>7497</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20208</v>
+        <v>21254</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01264960436915517</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007760833848715013</v>
+        <v>0.00757259026538618</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02041132728573408</v>
+        <v>0.0214672662091609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -4065,19 +4065,19 @@
         <v>8333</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4721</v>
+        <v>4431</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14094</v>
+        <v>13601</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.007458359342986812</v>
+        <v>0.00745835934298681</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004225850804544371</v>
+        <v>0.003965616238687302</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01261534459895926</v>
+        <v>0.01217345052087895</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -4086,19 +4086,19 @@
         <v>20857</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14110</v>
+        <v>14139</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28928</v>
+        <v>29856</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009897341469169171</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006695671989715947</v>
+        <v>0.006709488708218555</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01372754184302901</v>
+        <v>0.0141681462908904</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>977538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>969854</v>
+        <v>968808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>982378</v>
+        <v>982565</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9873503956308448</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.979588672714266</v>
+        <v>0.978532733790839</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.992239166151285</v>
+        <v>0.9924274097346137</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1545</v>
@@ -4136,19 +4136,19 @@
         <v>1108900</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1103139</v>
+        <v>1103632</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1112512</v>
+        <v>1112802</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9925416406570133</v>
+        <v>0.9925416406570131</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9873846554010409</v>
+        <v>0.9878265494791214</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9957741491954556</v>
+        <v>0.9960343837613127</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2534</v>
@@ -4157,19 +4157,19 @@
         <v>2086438</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2078367</v>
+        <v>2077439</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2093185</v>
+        <v>2093156</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.990102658530831</v>
+        <v>0.9901026585308308</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9862724581569712</v>
+        <v>0.9858318537091096</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9933043280102841</v>
+        <v>0.9932905112917815</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>32671</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23749</v>
+        <v>24175</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45942</v>
+        <v>45495</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009260072658825752</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006731233987816244</v>
+        <v>0.006851925036920759</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01302156050044997</v>
+        <v>0.0128947921508043</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -4282,19 +4282,19 @@
         <v>20972</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14374</v>
+        <v>15081</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29218</v>
+        <v>28346</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005623055588300566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003854078814197794</v>
+        <v>0.004043609608884344</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007834197100607449</v>
+        <v>0.00760035676228193</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -4303,19 +4303,19 @@
         <v>53643</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44126</v>
+        <v>42796</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69328</v>
+        <v>68993</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.007391094912388612</v>
+        <v>0.007391094912388611</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006079877791644498</v>
+        <v>0.00589654893317487</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009552261817480871</v>
+        <v>0.009506170074070844</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3495481</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3482210</v>
+        <v>3482657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3504403</v>
+        <v>3503977</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9907399273411743</v>
+        <v>0.9907399273411744</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.98697843949955</v>
+        <v>0.9871052078491958</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9932687660121838</v>
+        <v>0.9931480749630793</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5318</v>
@@ -4353,19 +4353,19 @@
         <v>3708605</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3700359</v>
+        <v>3701231</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3715203</v>
+        <v>3714496</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9943769444116994</v>
+        <v>0.9943769444116995</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.992165802899392</v>
+        <v>0.9923996432377179</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9961459211858021</v>
+        <v>0.9959563903911155</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8647</v>
@@ -4374,19 +4374,19 @@
         <v>7204086</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7188401</v>
+        <v>7188736</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7213603</v>
+        <v>7214933</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9926089050876113</v>
+        <v>0.9926089050876112</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9904477381825194</v>
+        <v>0.9904938299259297</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9939201222083559</v>
+        <v>0.9941034510668254</v>
       </c>
     </row>
     <row r="18">
